--- a/data/worldometer global/20-05-29 Global wom raw data.xlsx
+++ b/data/worldometer global/20-05-29 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1E8BF0C3-FD27-4556-9E4A-28A340540B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{510A2211-EC35-43C1-891E-184B0916404D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{1E8BF0C3-FD27-4556-9E4A-28A340540B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64656C45-C625-4E93-AC66-05AA1A7F973C}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="-20280" windowWidth="23085" windowHeight="16830" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="4275" yWindow="-19275" windowWidth="26970" windowHeight="16830" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -20587,429 +20587,429 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{B122A6F2-3870-4382-A8A9-4DC1D806E274}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{2E09A5E6-EF61-4860-B84B-7733C39C6591}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{55E3E8CB-B6C1-4C52-B9B0-7AF526089101}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{5CC1321D-07D3-45EE-A1A0-B1657AF8262F}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{9A282C24-80F3-4B9C-9978-02EF8650F356}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{BDED7E88-1358-4734-B5F0-2918C2A7E3EF}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{CA11BF01-D181-4BC1-B1E4-72BAF837898F}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{8B59DBA4-46FF-4F60-A6E8-25106E51F2CB}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{812391AD-A396-4030-9E81-412C4C439D8A}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{B772ACC7-2DD2-47AD-972E-EA0035D401F4}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{E36A44A1-8ACC-4CE5-A80A-F158081CB844}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{28F6BF71-76B7-4D1A-9F7B-6ED04EB86C6F}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{BF170DAF-B392-4A04-8047-7CA894E1CD3B}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{AE7C2264-9C6A-4C96-A2EE-8CBB6110A938}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{6222DEF0-94EA-4C03-950F-1FB905398CAB}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{9E8FD0B6-CEFE-4830-B41C-8DC9AB5CEAE0}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{E63836C2-7925-4FC5-8C6A-90097193A991}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{9F718C22-090E-4626-843C-905A6A99A4A0}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{78ED4E7E-7B88-4951-B5AC-37CF15C1017F}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{D7F5FE63-06A2-4A02-8B4C-D8CC32F24AC0}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{8907A4AD-3F51-4D27-A976-6ECF8F991F26}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{D8C1D559-253A-4630-B494-A1B11CBA5418}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{ABFC8D22-79ED-48E2-B3DD-6A14F6465961}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{4E99BB23-592B-4981-BD31-CF0E06206EB2}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{3F23911C-3E14-4062-AB13-920599CA51CA}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{437F447C-1CCB-4B49-83F3-1073863E9FB1}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{4E50668A-4B58-4943-AC13-BE0DD8E9D253}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{946B2F34-58ED-4B81-9F6C-E7CF3B29507E}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{D11DFBDA-6182-48C9-B161-EB9EB30851B3}"/>
-    <hyperlink ref="B18" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{FB016332-FBDA-46CA-BACA-18C4DB333142}"/>
-    <hyperlink ref="N18" r:id="rId31" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{03A94F64-AB5E-44BA-AC86-17F78D10D778}"/>
-    <hyperlink ref="B19" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{84358C85-FDC2-455D-9644-4907ED2D1A06}"/>
-    <hyperlink ref="N19" r:id="rId33" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{9E15817E-108F-46DE-9A58-484CBD0CE24E}"/>
-    <hyperlink ref="B20" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{F1A380E7-B758-44C8-8FDD-349BBB31A06C}"/>
-    <hyperlink ref="N20" r:id="rId35" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{3544F925-27E6-402F-8EB8-5B35E8E80215}"/>
-    <hyperlink ref="B21" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{853C44A8-CBF0-4664-BC22-29158B6205DA}"/>
-    <hyperlink ref="N21" r:id="rId37" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{BD55AF56-7D6C-44B2-B0A5-BE35EA308635}"/>
-    <hyperlink ref="B22" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{631D0260-1E9A-455C-9327-1D704CD03CF1}"/>
-    <hyperlink ref="N22" r:id="rId39" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{CCD8B8C9-4FAF-46F9-BDD4-C0F882A6B5D1}"/>
-    <hyperlink ref="B23" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{F68F7DF0-71B9-4BFA-BEF7-3D3750C163A7}"/>
-    <hyperlink ref="N23" r:id="rId41" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{54A2F4A8-0B2F-4005-957F-E0A5A9C8A831}"/>
-    <hyperlink ref="B24" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{35A46326-D55B-4F1C-A9EE-68C5B2FA2797}"/>
-    <hyperlink ref="N24" r:id="rId43" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{B6B92B27-2138-4D60-8AB3-5162C0193A87}"/>
-    <hyperlink ref="B25" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{153DDEDD-0EAA-488B-904D-B8812750A93E}"/>
-    <hyperlink ref="N25" r:id="rId45" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{9D6B4B68-C0D0-49C1-8A7C-8B99F76A50BD}"/>
-    <hyperlink ref="B26" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{9ACDA4CD-653B-415F-A9E7-C51FD48A5D4F}"/>
-    <hyperlink ref="N26" r:id="rId47" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{0CFED805-E499-4169-BF85-799013F924C5}"/>
-    <hyperlink ref="B27" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{3CFFBE05-445E-428E-A0CD-4E7DE8047CE1}"/>
-    <hyperlink ref="N27" r:id="rId49" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{EE63DCEE-0FF7-438B-AB4D-A5361926F820}"/>
-    <hyperlink ref="B28" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{13FCA1AA-24C1-41D8-9347-4142DC20172B}"/>
-    <hyperlink ref="N28" r:id="rId51" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{79F2C9D6-015A-48FC-AED5-550481734DAA}"/>
-    <hyperlink ref="B29" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{C405C34E-D36F-4BDD-96D4-60AE4F937B86}"/>
-    <hyperlink ref="N29" r:id="rId53" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{34AD3F49-1523-4F64-8A00-337B4BD516DE}"/>
-    <hyperlink ref="B30" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{688089EC-7DBD-41C1-B0A8-B8D536031618}"/>
-    <hyperlink ref="N30" r:id="rId55" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{0EC9ACFE-A2FF-48B6-9593-7C049888B64F}"/>
-    <hyperlink ref="B31" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{55E6708C-3096-4387-A8D4-2FB4EC3E80BB}"/>
-    <hyperlink ref="N31" r:id="rId57" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2BCD0A53-6A9E-4EF5-B599-7B76C2C85206}"/>
-    <hyperlink ref="B32" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{73586D4A-7345-4594-BCA7-ACE64FACAFE1}"/>
-    <hyperlink ref="N32" r:id="rId59" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{C4C172B5-3DAB-4B7B-8B2B-F5E02E95E02B}"/>
-    <hyperlink ref="B33" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{F2AA1C3B-FABE-496A-8DB1-962E9D91A8B3}"/>
-    <hyperlink ref="N33" r:id="rId61" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{1E6F069C-8FEC-4D46-910D-B877F424D1AB}"/>
-    <hyperlink ref="B34" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{5EE884E4-DE89-4E5F-8DD5-27385C491C9F}"/>
-    <hyperlink ref="N34" r:id="rId63" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{382B685F-3270-4BDB-9780-CA3876C53078}"/>
-    <hyperlink ref="B35" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{2DECA8C7-D25C-44EF-B1DB-7FD1F27DB1F5}"/>
-    <hyperlink ref="N35" r:id="rId65" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{2974CC9B-A961-4076-A1B1-0039A4DDD871}"/>
-    <hyperlink ref="B36" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{DC976F7E-B9E8-4432-B609-0E2682C0B8C8}"/>
-    <hyperlink ref="N36" r:id="rId67" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{0CE83DD3-A8BA-456E-BA75-5BC33ECB3993}"/>
-    <hyperlink ref="B37" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{FC057CED-9670-4D48-9454-23A9BAA7C8C4}"/>
-    <hyperlink ref="N37" r:id="rId69" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{12EA5F1B-6262-4C89-ABAC-423F598F1D8F}"/>
-    <hyperlink ref="B38" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{AC123BF9-6B95-4F22-9393-79EE39AA7227}"/>
-    <hyperlink ref="N38" r:id="rId71" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{1FC3241F-B066-45C4-926C-F0893CB83645}"/>
-    <hyperlink ref="B39" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{4F85F7DC-D8EE-45D5-A0FB-CABB3DF82D18}"/>
-    <hyperlink ref="N39" r:id="rId73" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{74F57DBA-C052-47DF-A294-93BAC4FAD301}"/>
-    <hyperlink ref="B40" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{B4A26863-13C0-4FE3-9E8A-4C700D43F085}"/>
-    <hyperlink ref="N40" r:id="rId75" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{DF08FA3E-687D-4973-BCBB-B4B8DCF23342}"/>
-    <hyperlink ref="B41" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{1F0282E3-D700-4F76-879E-88F6E4C7921A}"/>
-    <hyperlink ref="B42" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{69B39797-4D1B-4AF2-AC26-9C4A62FFF472}"/>
-    <hyperlink ref="N42" r:id="rId78" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{9E461DBC-21F2-402F-B50C-F4886D352A01}"/>
-    <hyperlink ref="B43" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{CE82A6C3-8145-4A70-AA84-2D6C26F02FB8}"/>
-    <hyperlink ref="N43" r:id="rId80" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{243067F1-5774-44A5-AB10-76E26DAA547A}"/>
-    <hyperlink ref="B44" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{BEFEF65C-7606-4B7D-87EF-F9C5E12ADBC6}"/>
-    <hyperlink ref="N44" r:id="rId82" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{64257F3F-6606-4847-8955-6796551995E4}"/>
-    <hyperlink ref="B45" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{93471262-4193-4774-98B1-1A4ADA5222F0}"/>
-    <hyperlink ref="N45" r:id="rId84" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{0B906507-9F52-41FA-A446-32CBC71EA4FF}"/>
-    <hyperlink ref="B46" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{914420E2-CDAC-44CF-8094-89E1EB1F2A5D}"/>
-    <hyperlink ref="N46" r:id="rId86" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{97516D6F-A051-4D42-B839-084321CCA883}"/>
-    <hyperlink ref="B47" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{463D0606-7223-4C30-B45B-E91CC7FAC8D6}"/>
-    <hyperlink ref="N47" r:id="rId88" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{22CD87DC-9033-4970-980A-DB1FEB7F0758}"/>
-    <hyperlink ref="B48" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{EE1B1BA1-468B-430C-B4AC-AE3D5FA0162B}"/>
-    <hyperlink ref="N48" r:id="rId90" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{0D1EC2D4-EE81-436B-A4CB-7052C36AADDF}"/>
-    <hyperlink ref="B49" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AB7BB93C-8FE3-4E12-89EA-5E4BBB30E8B7}"/>
-    <hyperlink ref="N49" r:id="rId92" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{229344AE-CEFA-494F-B134-1BCA363D4336}"/>
-    <hyperlink ref="B50" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{A9E2B625-5661-4816-B0C0-36A40D47A8D6}"/>
-    <hyperlink ref="N50" r:id="rId94" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{D7E71B9A-4372-494C-BE8A-37C0582B9203}"/>
-    <hyperlink ref="B51" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{B9DAE27C-CA94-47C2-B971-7B999FE21967}"/>
-    <hyperlink ref="N51" r:id="rId96" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{33EF97D9-7C80-4CC8-9E37-54B13EBD1FAD}"/>
-    <hyperlink ref="B52" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{49F6760D-EBF3-439F-82FA-32B4E8DFD949}"/>
-    <hyperlink ref="N52" r:id="rId98" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{961A5585-3EB5-4519-8038-23B833B0BF8A}"/>
-    <hyperlink ref="B53" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{256ECF95-E144-4C13-A5C4-4F5D7578685A}"/>
-    <hyperlink ref="N53" r:id="rId100" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{148374FE-64EF-49CF-A635-51E3142BFEEF}"/>
-    <hyperlink ref="B54" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{C9AED869-4D48-4525-8058-AC94AC7E2237}"/>
-    <hyperlink ref="N54" r:id="rId102" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{B93B67E2-514D-4AA7-A24D-67B8FB29BE36}"/>
-    <hyperlink ref="B55" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{DA81506D-CD1E-47B4-845B-BD26E19FCB77}"/>
-    <hyperlink ref="N55" r:id="rId104" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{BECF1651-B333-43CD-A1C3-4C8478A3D262}"/>
-    <hyperlink ref="B56" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{422D3B73-D5B5-4EF5-A658-DD5C5E546B1E}"/>
-    <hyperlink ref="N56" r:id="rId106" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{3284E1C5-8C5D-453C-9919-B5E516E32A1D}"/>
-    <hyperlink ref="B57" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{E483C3A1-D3EC-4E01-8A89-772380B7CD5C}"/>
-    <hyperlink ref="N57" r:id="rId108" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{C684540E-7C0F-4535-9364-4E28AA73647E}"/>
-    <hyperlink ref="B58" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{1BFD82C8-2FFC-4A3B-BB34-C3AEF5CEB1F2}"/>
-    <hyperlink ref="N58" r:id="rId110" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{DE8466D3-9DE2-4A0A-A665-DEA1F621A492}"/>
-    <hyperlink ref="B59" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{FA302B48-B795-43B9-B3D8-B364B4F6F885}"/>
-    <hyperlink ref="N59" r:id="rId112" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{ED56E072-5142-4CDE-B7F7-2CF365462E3A}"/>
-    <hyperlink ref="B60" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{29740B57-5D29-40B0-8809-AABB501323C8}"/>
-    <hyperlink ref="N60" r:id="rId114" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{C3CEC18C-56D2-4231-8E2B-CE13050F5E97}"/>
-    <hyperlink ref="B61" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{F0C5DFB3-9132-454D-8F78-1082688668A9}"/>
-    <hyperlink ref="N61" r:id="rId116" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{F747FC7B-B946-4289-A0E8-C33BD73AEA14}"/>
-    <hyperlink ref="B62" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{9C87C19D-2DC6-4782-AD77-9D2AA1B3D572}"/>
-    <hyperlink ref="N62" r:id="rId118" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{E2DA2F69-438A-4D02-BB7B-76C29946D28C}"/>
-    <hyperlink ref="B63" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{CAE92631-804A-469D-8AD3-1BD185A62901}"/>
-    <hyperlink ref="N63" r:id="rId120" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{ECFB90F2-5D61-47C8-9A53-82816827AA9D}"/>
-    <hyperlink ref="B64" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{C7EEA78B-998B-40D5-B17C-07F80B5DFDB6}"/>
-    <hyperlink ref="N64" r:id="rId122" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{4778D37A-08BA-4B7D-9383-BB7C1F324097}"/>
-    <hyperlink ref="B65" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{802A113B-28DC-4A9C-BAB6-33DA1D4C6FED}"/>
-    <hyperlink ref="N65" r:id="rId124" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{C41B3013-23EE-4EFE-8EB7-C5F3741CE616}"/>
-    <hyperlink ref="B66" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{10F24522-30C0-461D-8D62-717A933F58AF}"/>
-    <hyperlink ref="N66" r:id="rId126" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{C0ECC39B-1CE7-4F66-91A9-0C25A64D8521}"/>
-    <hyperlink ref="B67" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{9943EE8F-4414-414E-97DD-02F5A6CC800C}"/>
-    <hyperlink ref="N67" r:id="rId128" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{A9AF123A-08CA-4DC4-AE2B-07DBF46EE5A3}"/>
-    <hyperlink ref="B68" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{04E74419-492B-4B33-95B3-6ED2182867FA}"/>
-    <hyperlink ref="N68" r:id="rId130" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{40E43492-EB77-4AE6-A01D-CA68B541AB5A}"/>
-    <hyperlink ref="B69" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{C6D680CF-0CC6-4C4B-95DF-019C223556D1}"/>
-    <hyperlink ref="N69" r:id="rId132" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{92E1A27B-61C1-4BAE-8C79-01B17A89D8EA}"/>
-    <hyperlink ref="B70" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{10A0098F-A4E3-4610-9FFF-0302CD8F2AC1}"/>
-    <hyperlink ref="N70" r:id="rId134" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{41DC6F59-338B-4502-9DF2-61A1CB0BBD9E}"/>
-    <hyperlink ref="B71" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{B31EC656-C9B9-4CA0-A909-5AC1579492B4}"/>
-    <hyperlink ref="N71" r:id="rId136" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{3F5EFACB-5E08-4AAF-B3A1-F85F8D547E92}"/>
-    <hyperlink ref="B72" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{8BC13D08-B02A-4DAE-AED5-18E3E4C22F5D}"/>
-    <hyperlink ref="N72" r:id="rId138" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{725B28C4-0004-42B4-BE6D-D15E4E4A226A}"/>
-    <hyperlink ref="B73" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{F6E6912C-613B-4544-B5FE-F50A6BC9244F}"/>
-    <hyperlink ref="N73" r:id="rId140" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{34B9306E-BF74-4AF3-B52C-A0F0E1959936}"/>
-    <hyperlink ref="B74" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{9AF8DD24-4948-451E-931D-5F57534F4E5A}"/>
-    <hyperlink ref="N74" r:id="rId142" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{F8F616BA-03E4-4394-A007-91EB9F203885}"/>
-    <hyperlink ref="B75" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{57F26A4D-CDC2-40D0-A466-1637F1BF7468}"/>
-    <hyperlink ref="N75" r:id="rId144" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{96457135-D28A-410B-AB03-01EBC1D4383E}"/>
-    <hyperlink ref="B76" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{AFC0B572-E1D5-4A7F-9548-9F5B89560B51}"/>
-    <hyperlink ref="N76" r:id="rId146" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{7C80F334-D3B4-427B-8FCA-1BB656A24311}"/>
-    <hyperlink ref="B77" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{068C6615-02BC-4004-BBDF-D52F8514E9E7}"/>
-    <hyperlink ref="N77" r:id="rId148" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{B33F3C64-ADD8-44C6-9D28-C4BDD475320E}"/>
-    <hyperlink ref="B78" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{7F8FE073-7C51-41DE-B175-EDB66480A662}"/>
-    <hyperlink ref="N78" r:id="rId150" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{E292CA80-1195-4C91-9EEE-C2A5067122E5}"/>
-    <hyperlink ref="B79" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{987D5D13-67FA-4D87-A41D-4491B1D2DD93}"/>
-    <hyperlink ref="N79" r:id="rId152" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{D680940B-B362-4848-9C93-2643951C7C5A}"/>
-    <hyperlink ref="B80" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{EA6440F9-77D2-4F1D-BE8B-1436CB8E92F8}"/>
-    <hyperlink ref="N80" r:id="rId154" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{FF42669A-C800-4C52-BA05-F016EC462905}"/>
-    <hyperlink ref="B81" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{E62E6700-3DA7-427E-8D89-DECBB445E59D}"/>
-    <hyperlink ref="N81" r:id="rId156" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{DDC28E36-992E-4473-A1D1-D627C4C838A0}"/>
-    <hyperlink ref="B82" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{C551FD80-E43E-41D9-9692-8050CC3D04CE}"/>
-    <hyperlink ref="N82" r:id="rId158" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{8A7CE49F-ACB4-4AC5-AE81-A20881DC4817}"/>
-    <hyperlink ref="B83" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{C03862D2-78DC-46F5-B985-CD82CB18666D}"/>
-    <hyperlink ref="N83" r:id="rId160" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{4F90F550-592A-48C3-8861-7B0ADF2088E9}"/>
-    <hyperlink ref="B84" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{181B094F-3D2D-45A9-9758-C7C1A0DCC561}"/>
-    <hyperlink ref="N84" r:id="rId162" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{F3CEC1A5-E46A-4D62-BAD3-21B1DC648D74}"/>
-    <hyperlink ref="B85" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{1931512C-A655-432A-A060-9B28565234F9}"/>
-    <hyperlink ref="N85" r:id="rId164" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{1EF98FAF-C732-45E4-B9FE-3082901BD712}"/>
-    <hyperlink ref="B86" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{91C1E1FE-DBEE-4996-8B6A-056960367EFD}"/>
-    <hyperlink ref="N86" r:id="rId166" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{EFC54A48-4417-40D8-B474-BB94C558B59F}"/>
-    <hyperlink ref="B87" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{185E857F-DBB6-48CD-B1DC-096F80218D1F}"/>
-    <hyperlink ref="N87" r:id="rId168" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{991BF29F-94BF-452E-A66B-30440364D326}"/>
-    <hyperlink ref="B88" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{05CB7456-22DF-44F3-9D81-CA1B76CB3F21}"/>
-    <hyperlink ref="N88" r:id="rId170" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{D010CF52-68FD-43AA-906B-9C317695795B}"/>
-    <hyperlink ref="B89" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{4D7B2546-2F48-48C3-BF08-E02B158F4197}"/>
-    <hyperlink ref="N89" r:id="rId172" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{624DCF55-4D63-4FA7-9929-8FACBA78626C}"/>
-    <hyperlink ref="B90" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{9C1383AF-23F4-4EF9-9D8A-8A51606B9B49}"/>
-    <hyperlink ref="N90" r:id="rId174" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{B648699E-BD1E-47DB-A4A0-F68F5C94EC0A}"/>
-    <hyperlink ref="B91" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{5C74C3A1-2EBE-4F0C-9E1E-B627415AD1BE}"/>
-    <hyperlink ref="N91" r:id="rId176" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{E11307E7-26A9-4140-9737-7DC94261E3CB}"/>
-    <hyperlink ref="B92" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{3BB584F6-0E0E-4E1E-93ED-00A916AF94D7}"/>
-    <hyperlink ref="N92" r:id="rId178" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{C8CAF69C-8AA4-4FED-9009-43845E426572}"/>
-    <hyperlink ref="B93" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{D61FF846-D1A3-4EFD-8145-B4E8152B7586}"/>
-    <hyperlink ref="N93" r:id="rId180" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{9CC69ABA-5AC9-49AF-849A-B8249002D2CA}"/>
-    <hyperlink ref="B94" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{AA4EF88C-493B-4033-83DC-EF912D328495}"/>
-    <hyperlink ref="N94" r:id="rId182" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{874AAD9B-64DE-4E8A-B847-9A431CD787A9}"/>
-    <hyperlink ref="B95" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{60F43511-5C72-4951-8CD5-879E5FFA3F34}"/>
-    <hyperlink ref="N95" r:id="rId184" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{2D415E70-4576-4EA9-8694-E972932A9464}"/>
-    <hyperlink ref="B96" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{B24786A2-7C5D-4914-8696-FD1054B5A30A}"/>
-    <hyperlink ref="N96" r:id="rId186" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{D561A218-B0C2-4AF6-9090-E2B5DFA400F4}"/>
-    <hyperlink ref="B97" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{1BB26A83-BD94-4693-8322-D57A0F73AAB5}"/>
-    <hyperlink ref="N97" r:id="rId188" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{75F98607-7BF8-4A55-BD8D-F1FA6E5F2E2F}"/>
-    <hyperlink ref="B98" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{33B1EAF8-190D-44D4-B7BF-9EEE73C9B1DA}"/>
-    <hyperlink ref="N98" r:id="rId190" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{33AC926D-2E6A-4A77-A2A3-D1BF726B277B}"/>
-    <hyperlink ref="B99" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{B7B6619C-E781-45BB-B002-24D9B797CD2A}"/>
-    <hyperlink ref="N99" r:id="rId192" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{3CD52089-7A43-4107-B6F6-24A4665E0D66}"/>
-    <hyperlink ref="B100" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{8CCA2099-A810-44B3-8EA1-FB2E8314D905}"/>
-    <hyperlink ref="N100" r:id="rId194" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{B5D68CBB-439A-4407-ABE5-17590505022C}"/>
-    <hyperlink ref="B101" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{C6EEC3C7-0C60-4A45-BBAA-CEBF703F1E39}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{11BF643E-0D9D-448D-B54C-C090B858BBCD}"/>
-    <hyperlink ref="N102" r:id="rId197" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{2D45CFD5-A59B-4D9F-A2CA-012BEA5E658E}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{F26B98F9-D2F4-4125-93D6-2932E5904B6B}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{69877157-DB36-4810-B969-2B70900BC20D}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{D9C7E84E-FE16-4CA4-B92E-19C903A52E28}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{E061C3EC-E80A-47FF-B994-E4F960DA1AA3}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{67D7A06B-09AB-4D2B-B1F0-0D79CFA6C6D2}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{FCC4CDEA-5651-4CAB-9501-ECEBF748C260}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{5FF91353-85CB-44A5-8D1C-BFEDD0C2CFAC}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{5328B1A7-4B0F-4FE1-860A-E992B83DF0DC}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{6F793A86-DEBC-4B9D-AFC3-7CFF8246F5E4}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{C67DEEAB-D83F-4AC0-A0D1-26469C44DF2A}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{94D8150D-6DA8-4FDA-B330-E52B078C717F}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{D660C3E0-18B7-41D8-AD40-D1BFEF2BC731}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{F1FE1F56-229F-43F8-9DA6-2A2987472F87}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{207D33BA-3F78-4775-8D8A-571B417A11EF}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{B27F8274-CEA9-426B-B9CD-E95B85667A86}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{68D6DF10-278D-4067-BD70-2305551A002B}"/>
+    <hyperlink ref="N216" r:id="rId3" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{C71913AC-B763-491E-8915-F40B046827AA}"/>
+    <hyperlink ref="B216" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{F200894D-9BC0-4DC8-8FC7-F9244002BC25}"/>
+    <hyperlink ref="N215" r:id="rId5" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{A8A2B439-A0AC-404E-A2F4-7441B3573373}"/>
+    <hyperlink ref="B215" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{11888D0E-A7F0-4601-B8C8-486E08310524}"/>
+    <hyperlink ref="N214" r:id="rId7" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{0B47A57E-D03A-43A4-B75B-5092B61D3497}"/>
+    <hyperlink ref="B214" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{1863F269-DED9-4431-906C-06E2A972AB38}"/>
+    <hyperlink ref="N213" r:id="rId9" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{315826DC-23BD-48BE-B1F7-598DE3A17CD7}"/>
+    <hyperlink ref="B213" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{826278EC-59B0-4511-A25E-40C4DCA1FDE7}"/>
+    <hyperlink ref="N212" r:id="rId11" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{A1304AC2-4AD7-4BFB-A849-60C266852D29}"/>
+    <hyperlink ref="B212" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{4E4C58F3-76B4-47A9-87DC-7930203C6C17}"/>
+    <hyperlink ref="N211" r:id="rId13" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{207762E7-741C-452B-845A-F9D23875D807}"/>
+    <hyperlink ref="B211" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{9A0B8B99-29FB-43BF-8A6E-974168BC4CE8}"/>
+    <hyperlink ref="N210" r:id="rId15" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{499CE207-699A-4377-9F1C-CA60A7FE95F8}"/>
+    <hyperlink ref="B210" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{5869B0FF-C907-4CE5-8FB5-F47A304C3C84}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{46D7D2D1-71A9-48C5-BF4A-888894E51CAC}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{27C02740-B33D-4C59-B7EF-2F6B5591CED1}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{CB672F4F-45C3-4A2B-9E33-B4E7F1B4F286}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{1559ECF0-29A7-4762-AE49-91FC3C4F24EB}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{DDD6E2AF-6331-4B28-9668-7984F55F1D06}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{98361EA4-6585-4CC5-9516-FB9998B8AFC2}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EC0CAB91-8BAE-4B67-A53C-C811EE666373}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{0CBF41DB-61A4-4A4D-BBA9-89CA2427F7AC}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{B6672D81-399F-4F49-B846-8F406EFA5D5A}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{F4832A76-B17E-4944-8E80-EA530AE91C00}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{2867C4EC-2E10-4FD6-8080-FEF3D0E36525}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{94BEC62D-4675-430A-82B7-CEE55CAAC05E}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{C09DC41C-0F67-443F-838D-74ECE6DEFBC2}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{52A5C141-F5C9-40C5-A342-63B96BE1695C}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{7617FE6C-A185-4A32-B5D3-19876B451162}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{39A1997B-E968-491B-B91C-0A1271BD2F8B}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{E520DCB1-B440-43D0-B655-D751F4E8A389}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{0881FAF4-1BA4-4148-9FF8-0E8C441F1091}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{49D66828-3017-4304-AD6A-0A2BDF2AD94A}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{C5F1D007-02D6-401B-B9B1-AA448114E0B8}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{FB9C2AE4-06D2-438F-8133-1F9C42283131}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{C73A94C6-20EA-4443-A384-35226D243079}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{71372584-D8F8-4118-8C70-91DBB9FB7A44}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{FD4849E0-9318-43D6-A38E-F339B6FC2B21}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{DA9973EF-922E-480F-A0E8-B205FE4FB898}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{C7A7B76A-A557-4C1E-8D6D-A8E0A9395ACB}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{57104512-692C-4692-AAA6-2875CBDF9ACD}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{ADD540F3-24AB-4A14-A240-7852E8B46EE0}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{552CE729-2643-4D60-B112-B849EB2A34C1}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{7DB6EFBF-2C01-4AB2-B444-A135F3200708}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{A6D41AA3-43A8-4EFD-B8F4-D1E03D48928A}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{485AB089-1267-4F89-8A65-D48E26C946B7}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{30097AAF-686D-4AFA-9A88-C0DE41321C37}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{CC28C243-DE5A-4E6E-A689-3B0CC1B46A54}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{628FC423-B9B7-47DA-A503-4D3B684CD2E6}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{8EA26DDD-6D37-4A92-8D6A-2CAD1CA14759}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{C3BC374D-2F81-4E9C-BB83-A69DCB482DEB}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{B9F74241-67C2-404B-8AE7-55DDF01FF3E0}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B5FC193B-A485-4CF9-8530-36ED0F210E7A}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{57DFE3E1-0C85-4961-9DAB-88AF774DE28E}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{38EE35A9-D3C1-4786-8207-9302A3D736D0}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{192E87FB-ECBB-4B77-BA22-FD4E7CA4ED92}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{218CA19B-A972-42B1-AF3C-D4533152F3F8}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{38AC25F4-1FB9-4397-B748-8A24FC3A0D21}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{84489A82-3179-45F9-95E6-2013B69ADBB3}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{B8870388-D566-4626-AF53-2E3B47843ECA}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{6B989970-36C3-4C1F-84D6-1C6245FB640F}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{19970ECF-8681-46C3-B34B-E18A6CEF78E9}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{FF655DCB-CCA7-4D52-A4B8-935A5CB3A357}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{04172095-85F2-4848-8332-AC62602A6FAD}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{D1C2B480-AA99-4DEB-8573-061CD6F2841F}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{FA63AF4F-0CD7-4858-AD90-17560CAC8C43}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{9B688FB8-CD46-443E-99BC-3E951AEC79C2}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8A9E3716-FF75-40E3-8C36-77ED0B056FC7}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{775D9F28-27DE-459D-B175-92A482083B44}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{5D3586AA-D45A-445E-B504-6CE8CDA139D6}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{52D3000A-902E-469D-A85B-AEF4A435F81C}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7F61EC4D-AA87-4799-AEFC-8B6AF8324C2C}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{4BEF49D6-EB35-464D-A663-648CAAECCC6A}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{AC7D18C5-0AB8-48BF-9424-8C416DCDDC66}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{E7FBF58D-51C0-4245-B99F-56865422FBE3}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{4A55B28E-A8F3-4070-BACA-1119AEA85FE4}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{3EA47AA7-29C3-4A65-84A7-337921E81A8D}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{FD1A754C-AC7F-4921-B0E1-9A80B811B438}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{E4211627-2F3E-4F40-A255-E17ED9FD9C12}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{CB0D7D7D-27BC-4537-973B-A70E6573C442}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{A331AF93-069A-45B6-9697-3C8C53B63B1B}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B75E6D22-EAB4-4CF4-AE1E-EE8A1A73D761}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{D3591486-1756-427A-ADF4-CBDD88BACE0F}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{6D432825-A74B-47C5-96BB-CA547C4509A3}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{180CAC47-8388-4C0F-A4CF-DFF15B8BC6C1}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{34DBA3E5-8EC5-43B4-95AC-876E9B221BA2}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{3B491B07-0BCC-4A81-AD8E-DEF1E4D0F6AD}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{206245BB-AA28-41F4-9A78-8AFFBE6FC3AC}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{7E708BA7-EBBE-470F-9EA2-C1ABDC13C343}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{903DCAB2-4630-4B35-B747-27AB3BF69242}"/>
+    <hyperlink ref="N170" r:id="rId93" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{386C6D4A-A898-478B-9443-6F60FF190F11}"/>
+    <hyperlink ref="B170" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{02FFFC8C-72D7-4906-9913-4639474F90FB}"/>
+    <hyperlink ref="N169" r:id="rId95" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{C5559BD0-687A-4349-8485-E893CF215849}"/>
+    <hyperlink ref="B169" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{A01BD215-4823-4BA4-93B5-32B5E3B0F9E8}"/>
+    <hyperlink ref="N168" r:id="rId97" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{90784E79-D046-4EAC-A3D0-C88748BD3910}"/>
+    <hyperlink ref="B168" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{05F4B351-C7B3-4136-B911-85BF17DF0901}"/>
+    <hyperlink ref="N167" r:id="rId99" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{8C9012EF-E88D-4BEA-ACCC-1D0812CB6345}"/>
+    <hyperlink ref="B167" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{80C4FEE5-9FD9-4EA0-949D-36DED62B7999}"/>
+    <hyperlink ref="N166" r:id="rId101" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{013815EE-5AF0-4621-9194-79B04056D997}"/>
+    <hyperlink ref="B166" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{F803E0E4-E901-4A12-91B1-E7536C9C4A8E}"/>
+    <hyperlink ref="N165" r:id="rId103" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{036BF2D1-78EE-47AC-9F28-F21CB8C7139C}"/>
+    <hyperlink ref="B165" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{C715594E-7F8E-4E09-81CA-C5B9B9E03765}"/>
+    <hyperlink ref="N164" r:id="rId105" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{5A763246-C757-49CD-914F-C3A505DF0615}"/>
+    <hyperlink ref="B164" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{59503963-947D-4E1E-907D-4A1B3AB53B2F}"/>
+    <hyperlink ref="N163" r:id="rId107" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{2D7A5870-38E8-4A4E-BF1D-1867BC6053F8}"/>
+    <hyperlink ref="B163" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{9B3C421A-E52B-4E64-97BE-14198BE149DB}"/>
+    <hyperlink ref="N162" r:id="rId109" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{C2E7E56D-5B6D-482A-A73A-5FDB55AADD03}"/>
+    <hyperlink ref="B162" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{9A264D47-4D5D-4153-BDC5-7A80E6B40C5B}"/>
+    <hyperlink ref="N161" r:id="rId111" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{6164D161-DFD3-487D-ADA3-5D12F81C4EA1}"/>
+    <hyperlink ref="B161" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{B24213D1-FFB7-4F85-9D77-8BEDAF915383}"/>
+    <hyperlink ref="N160" r:id="rId113" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{1440AD76-8EB9-44CE-8643-C555537B57B0}"/>
+    <hyperlink ref="B160" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{2EA6C9C0-7CB0-40D2-9A24-5763CBF6C420}"/>
+    <hyperlink ref="N159" r:id="rId115" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{D9257E81-8E7F-4422-A377-2D066E88093D}"/>
+    <hyperlink ref="B159" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{2A726E67-8068-4DE2-826E-8E4EC9C159F9}"/>
+    <hyperlink ref="N158" r:id="rId117" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{A49C94C9-449C-4517-82B0-3B847539F842}"/>
+    <hyperlink ref="B158" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{89269297-A2A7-4535-A3DD-277E1079101C}"/>
+    <hyperlink ref="N157" r:id="rId119" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{3EA1C208-0EBD-470F-9E50-63356195C60F}"/>
+    <hyperlink ref="B157" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{49C6E8FC-9E84-47F8-A242-E4A29C8E0A5B}"/>
+    <hyperlink ref="N156" r:id="rId121" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{CD95BABE-1820-4619-A9BC-081E93C7DEBC}"/>
+    <hyperlink ref="B156" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{80DB2C87-F4BB-4C3E-A660-F140A3A57936}"/>
+    <hyperlink ref="N155" r:id="rId123" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{6C3B13D7-40C2-46F8-A4BA-5070C0A4FD6D}"/>
+    <hyperlink ref="B155" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{7899A13A-C6B0-4A4C-97B2-6F8BC8A24133}"/>
+    <hyperlink ref="N154" r:id="rId125" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{CD7EEA72-9F7F-405B-8D12-E9967FAC6E4C}"/>
+    <hyperlink ref="B154" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{7C6E8615-B379-4A95-889E-9384CC5568BE}"/>
+    <hyperlink ref="N153" r:id="rId127" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{A98577AA-60AD-4F29-81F0-E9F0FDB3BB3E}"/>
+    <hyperlink ref="B153" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{7EDD52F4-A1F3-4D55-BCC7-9B8A1718C662}"/>
+    <hyperlink ref="N152" r:id="rId129" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{72FD66A2-A412-4313-8996-207257395BEE}"/>
+    <hyperlink ref="B152" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{AB41F00A-4B8B-4077-9962-857A05563099}"/>
+    <hyperlink ref="N151" r:id="rId131" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{1278E806-38CB-4990-9D02-00BD8326701E}"/>
+    <hyperlink ref="B151" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{F59130CB-CFA4-48C9-B64D-419B341839BA}"/>
+    <hyperlink ref="N150" r:id="rId133" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{23D94EC5-AFA8-49D5-9381-141E3C6E1C2F}"/>
+    <hyperlink ref="B150" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{F80E5024-2232-4426-8475-3AFC3870652E}"/>
+    <hyperlink ref="N149" r:id="rId135" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{AFE28B5C-D115-4D60-8A81-D7E5DBB0A7F9}"/>
+    <hyperlink ref="B149" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{21FF0B96-D9D8-4576-B63C-74695C21FE7A}"/>
+    <hyperlink ref="N148" r:id="rId137" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{B214787D-8739-4D4C-82C2-A073CB04C05A}"/>
+    <hyperlink ref="B148" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{E58A8763-E61E-403E-BD24-EB4DD94BB561}"/>
+    <hyperlink ref="N147" r:id="rId139" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{A640010D-65B7-4855-8B23-1CBAF588B974}"/>
+    <hyperlink ref="B147" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{34456EF0-E362-4F2E-ACD7-B66FAE2EFF5D}"/>
+    <hyperlink ref="N146" r:id="rId141" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{46865BD9-0703-41B1-A90F-F8331FFDEB41}"/>
+    <hyperlink ref="B146" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{D9F87261-C481-47C3-A402-96C15E1B9419}"/>
+    <hyperlink ref="N145" r:id="rId143" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{B96CE50F-6B12-444A-AE9D-7A7D4FB73504}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{DB7973EB-4858-4148-8CF7-88A429A3E16D}"/>
+    <hyperlink ref="N144" r:id="rId145" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{DA8629B3-FB53-4B91-AD3C-B73E73E9C206}"/>
+    <hyperlink ref="B144" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{C9BA1E93-9113-43AB-A578-0F7020683C35}"/>
+    <hyperlink ref="N143" r:id="rId147" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{FAA41F83-2606-448D-B322-B112BB2815C3}"/>
+    <hyperlink ref="B143" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{995102AF-A6D8-4149-9042-63D521DD6144}"/>
+    <hyperlink ref="N142" r:id="rId149" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{73F97B52-0E7E-4B4F-A081-2D65ADCC5F96}"/>
+    <hyperlink ref="B142" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{58A43E3D-1776-45E6-B4FD-0425E717D0EF}"/>
+    <hyperlink ref="N141" r:id="rId151" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{1A099DD3-D7A0-4D39-99AE-83BD6B968BFC}"/>
+    <hyperlink ref="B141" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{29162893-BBD4-4F09-868D-CFCA6D66C95E}"/>
+    <hyperlink ref="N140" r:id="rId153" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{4190DF58-560E-42EC-B0A9-2A50063EF93A}"/>
+    <hyperlink ref="B140" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{2C1ECA17-6580-45DC-8A41-6A47B0DFF6B3}"/>
+    <hyperlink ref="N139" r:id="rId155" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{FA15E20D-A245-49BF-8A4F-EAE06D8D61F0}"/>
+    <hyperlink ref="B139" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{45AF9615-8775-42CF-B4B2-886E72BFF7B1}"/>
+    <hyperlink ref="N138" r:id="rId157" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{E91C3C6C-91D6-4A73-BC5F-B9F1F97F4CA8}"/>
+    <hyperlink ref="B138" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{C4D38B9C-777A-4966-959B-3011AD22FC1C}"/>
+    <hyperlink ref="N137" r:id="rId159" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{F254B1E0-6DB7-48E8-86BA-C3D88D765B08}"/>
+    <hyperlink ref="B137" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{B3C3EADC-C6F7-4A95-B589-CB1A65BFB627}"/>
+    <hyperlink ref="N136" r:id="rId161" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{F36322C7-B3D0-4CFB-8DED-869E183A47FE}"/>
+    <hyperlink ref="B136" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D5012F22-0693-45AE-8818-E37DBD6392AF}"/>
+    <hyperlink ref="N135" r:id="rId163" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C954B243-0A64-4F29-88DA-4FFE54ABB27E}"/>
+    <hyperlink ref="B135" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{959A963B-E91E-4639-8D3E-37C616DA8424}"/>
+    <hyperlink ref="N134" r:id="rId165" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{B23FF25E-0F83-45CA-9F36-DDBC3C1A9928}"/>
+    <hyperlink ref="B134" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{F90D1640-733D-4529-97CA-963A06973C53}"/>
+    <hyperlink ref="N133" r:id="rId167" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{EAC97517-FA57-435E-877E-8BA25E5E4A04}"/>
+    <hyperlink ref="B133" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{784C21B5-FF90-4B76-8815-B30C420FCB44}"/>
+    <hyperlink ref="N132" r:id="rId169" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{7103C851-E8D2-464A-99DA-EEB6725E3BD4}"/>
+    <hyperlink ref="B132" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{D50D2AEB-726C-4DC1-BFC9-EFD23DDBCD0D}"/>
+    <hyperlink ref="N131" r:id="rId171" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{251BCA5E-495A-47F1-B025-36AF92CC3CAC}"/>
+    <hyperlink ref="B131" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{8872D8D2-D0DB-4454-8DDC-065D28CD0D8E}"/>
+    <hyperlink ref="N129" r:id="rId173" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{6B7555E9-0295-419C-A9BD-16A57BB74411}"/>
+    <hyperlink ref="B129" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{BACC03FC-7C26-4AD4-8082-D786CDF75E74}"/>
+    <hyperlink ref="N128" r:id="rId175" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{33CDBCAC-A2BD-4979-8749-CA11F592DC36}"/>
+    <hyperlink ref="B128" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{E00AB6C9-D935-4F82-89F9-4F7C4E38C4C9}"/>
+    <hyperlink ref="N127" r:id="rId177" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{41FE0FC1-18D2-47DE-88FE-53B84DA4DA1B}"/>
+    <hyperlink ref="B127" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{EFD5B6FA-5D0E-4052-A0F3-E0A6919B45C5}"/>
+    <hyperlink ref="N126" r:id="rId179" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{90C812F4-3524-4914-8E1B-CBA1C0C80EEA}"/>
+    <hyperlink ref="B126" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{39718578-D46E-42D5-BF1C-4FC9474F4BA7}"/>
+    <hyperlink ref="N125" r:id="rId181" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{22E0CE71-05BC-4BE5-8420-7304836A86C1}"/>
+    <hyperlink ref="B125" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{3050CBC9-7B46-4E27-AA0F-95DB1A75076C}"/>
+    <hyperlink ref="N124" r:id="rId183" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{948B76D3-C464-4DF7-B557-5115B023070B}"/>
+    <hyperlink ref="B124" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{A5D02130-AC95-4704-8ABA-B101CAD91E61}"/>
+    <hyperlink ref="N123" r:id="rId185" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{F1BC060C-7A50-411E-BF47-1825FE897A4E}"/>
+    <hyperlink ref="B123" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{80574298-0890-4395-8C9D-09CF636EC619}"/>
+    <hyperlink ref="N122" r:id="rId187" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{F4273146-7973-41C3-B667-9DED8F684D9C}"/>
+    <hyperlink ref="B122" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{52366E1C-0538-49F4-87D7-C3F1EC96A54D}"/>
+    <hyperlink ref="N121" r:id="rId189" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{B05A597D-5A32-4D68-818E-91A1CABC7BFB}"/>
+    <hyperlink ref="B121" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{62E0C702-D8CF-4A86-8DA5-B4BD7FD48900}"/>
+    <hyperlink ref="N120" r:id="rId191" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{F2CBB162-2843-462B-A2D9-08253FADEF74}"/>
+    <hyperlink ref="B120" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{1EEE0D0A-C770-4BB7-B58B-44D77F7092FA}"/>
+    <hyperlink ref="N119" r:id="rId193" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{F4B36120-C74D-4A3E-9FF3-A29680D57975}"/>
+    <hyperlink ref="B119" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{BB582F33-7BA5-4AB6-80BA-F72A788B2018}"/>
+    <hyperlink ref="N118" r:id="rId195" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{4A1F0EF5-65EB-4D42-A0A8-831C81658532}"/>
+    <hyperlink ref="B118" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{3CC2F8D7-E390-4BB7-8B16-BF114D3FFD9B}"/>
+    <hyperlink ref="N117" r:id="rId197" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{CB1FC61C-F660-4FC5-A86D-1A5D5460DAD8}"/>
+    <hyperlink ref="B117" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{ED758201-124E-4B6C-8287-96276E0ABBF7}"/>
+    <hyperlink ref="N116" r:id="rId199" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{18A57F48-60C3-444D-BCA2-AE3C62D98731}"/>
+    <hyperlink ref="B116" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{C545E168-1C17-45F5-BDBA-1EE1E178BDCD}"/>
+    <hyperlink ref="N115" r:id="rId201" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{843E1390-12C5-432A-928D-ADA454655405}"/>
+    <hyperlink ref="B115" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{7B1B1D78-6C51-4BD5-9EDC-677AE6C4936D}"/>
+    <hyperlink ref="N114" r:id="rId203" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{3FE8C809-AA4F-4C09-BC28-4083AC697CDD}"/>
+    <hyperlink ref="B114" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{C809DFB8-74DC-4B99-9BC8-1D3DEB239F1C}"/>
+    <hyperlink ref="N113" r:id="rId205" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{5BE27C6C-FEF8-4ECB-A171-A18366D2C649}"/>
+    <hyperlink ref="B113" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{081ADD1B-7A99-4FE6-8480-ED0BBD4A1FD3}"/>
+    <hyperlink ref="N112" r:id="rId207" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{F633033D-F793-4289-96BC-A2524DFF9698}"/>
+    <hyperlink ref="B112" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{FCC2A27F-D458-4442-8DA0-0D1EEAC16BE9}"/>
+    <hyperlink ref="N111" r:id="rId209" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{C5B4C6C7-B583-43B5-9591-F699E3A00AEC}"/>
+    <hyperlink ref="B111" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{C4671E71-059E-4A49-9FC7-63AA0C14EB52}"/>
+    <hyperlink ref="N110" r:id="rId211" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{E924CFDC-5F52-4D4E-A009-401CF8E6E5C7}"/>
     <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{57D548F1-E104-4B10-9C4C-391C6DADCB9E}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{E924CFDC-5F52-4D4E-A009-401CF8E6E5C7}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{C4671E71-059E-4A49-9FC7-63AA0C14EB52}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{C5B4C6C7-B583-43B5-9591-F699E3A00AEC}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{FCC2A27F-D458-4442-8DA0-0D1EEAC16BE9}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{F633033D-F793-4289-96BC-A2524DFF9698}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{081ADD1B-7A99-4FE6-8480-ED0BBD4A1FD3}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{5BE27C6C-FEF8-4ECB-A171-A18366D2C649}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{C809DFB8-74DC-4B99-9BC8-1D3DEB239F1C}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{3FE8C809-AA4F-4C09-BC28-4083AC697CDD}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{7B1B1D78-6C51-4BD5-9EDC-677AE6C4936D}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{843E1390-12C5-432A-928D-ADA454655405}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{C545E168-1C17-45F5-BDBA-1EE1E178BDCD}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{18A57F48-60C3-444D-BCA2-AE3C62D98731}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{ED758201-124E-4B6C-8287-96276E0ABBF7}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{CB1FC61C-F660-4FC5-A86D-1A5D5460DAD8}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{3CC2F8D7-E390-4BB7-8B16-BF114D3FFD9B}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{4A1F0EF5-65EB-4D42-A0A8-831C81658532}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{BB582F33-7BA5-4AB6-80BA-F72A788B2018}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{F4B36120-C74D-4A3E-9FF3-A29680D57975}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{1EEE0D0A-C770-4BB7-B58B-44D77F7092FA}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{F2CBB162-2843-462B-A2D9-08253FADEF74}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{62E0C702-D8CF-4A86-8DA5-B4BD7FD48900}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{B05A597D-5A32-4D68-818E-91A1CABC7BFB}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{52366E1C-0538-49F4-87D7-C3F1EC96A54D}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{F4273146-7973-41C3-B667-9DED8F684D9C}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{80574298-0890-4395-8C9D-09CF636EC619}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{F1BC060C-7A50-411E-BF47-1825FE897A4E}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{A5D02130-AC95-4704-8ABA-B101CAD91E61}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{948B76D3-C464-4DF7-B557-5115B023070B}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{3050CBC9-7B46-4E27-AA0F-95DB1A75076C}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{22E0CE71-05BC-4BE5-8420-7304836A86C1}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{39718578-D46E-42D5-BF1C-4FC9474F4BA7}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{90C812F4-3524-4914-8E1B-CBA1C0C80EEA}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{EFD5B6FA-5D0E-4052-A0F3-E0A6919B45C5}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{41FE0FC1-18D2-47DE-88FE-53B84DA4DA1B}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{E00AB6C9-D935-4F82-89F9-4F7C4E38C4C9}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{33CDBCAC-A2BD-4979-8749-CA11F592DC36}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{BACC03FC-7C26-4AD4-8082-D786CDF75E74}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{6B7555E9-0295-419C-A9BD-16A57BB74411}"/>
-    <hyperlink ref="B131" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{8872D8D2-D0DB-4454-8DDC-065D28CD0D8E}"/>
-    <hyperlink ref="N131" r:id="rId253" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{251BCA5E-495A-47F1-B025-36AF92CC3CAC}"/>
-    <hyperlink ref="B132" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{D50D2AEB-726C-4DC1-BFC9-EFD23DDBCD0D}"/>
-    <hyperlink ref="N132" r:id="rId255" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{7103C851-E8D2-464A-99DA-EEB6725E3BD4}"/>
-    <hyperlink ref="B133" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{784C21B5-FF90-4B76-8815-B30C420FCB44}"/>
-    <hyperlink ref="N133" r:id="rId257" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{EAC97517-FA57-435E-877E-8BA25E5E4A04}"/>
-    <hyperlink ref="B134" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{F90D1640-733D-4529-97CA-963A06973C53}"/>
-    <hyperlink ref="N134" r:id="rId259" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{B23FF25E-0F83-45CA-9F36-DDBC3C1A9928}"/>
-    <hyperlink ref="B135" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{959A963B-E91E-4639-8D3E-37C616DA8424}"/>
-    <hyperlink ref="N135" r:id="rId261" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C954B243-0A64-4F29-88DA-4FFE54ABB27E}"/>
-    <hyperlink ref="B136" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D5012F22-0693-45AE-8818-E37DBD6392AF}"/>
-    <hyperlink ref="N136" r:id="rId263" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{F36322C7-B3D0-4CFB-8DED-869E183A47FE}"/>
-    <hyperlink ref="B137" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{B3C3EADC-C6F7-4A95-B589-CB1A65BFB627}"/>
-    <hyperlink ref="N137" r:id="rId265" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{F254B1E0-6DB7-48E8-86BA-C3D88D765B08}"/>
-    <hyperlink ref="B138" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{C4D38B9C-777A-4966-959B-3011AD22FC1C}"/>
-    <hyperlink ref="N138" r:id="rId267" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{E91C3C6C-91D6-4A73-BC5F-B9F1F97F4CA8}"/>
-    <hyperlink ref="B139" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{45AF9615-8775-42CF-B4B2-886E72BFF7B1}"/>
-    <hyperlink ref="N139" r:id="rId269" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{FA15E20D-A245-49BF-8A4F-EAE06D8D61F0}"/>
-    <hyperlink ref="B140" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{2C1ECA17-6580-45DC-8A41-6A47B0DFF6B3}"/>
-    <hyperlink ref="N140" r:id="rId271" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{4190DF58-560E-42EC-B0A9-2A50063EF93A}"/>
-    <hyperlink ref="B141" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{29162893-BBD4-4F09-868D-CFCA6D66C95E}"/>
-    <hyperlink ref="N141" r:id="rId273" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{1A099DD3-D7A0-4D39-99AE-83BD6B968BFC}"/>
-    <hyperlink ref="B142" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{58A43E3D-1776-45E6-B4FD-0425E717D0EF}"/>
-    <hyperlink ref="N142" r:id="rId275" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{73F97B52-0E7E-4B4F-A081-2D65ADCC5F96}"/>
-    <hyperlink ref="B143" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{995102AF-A6D8-4149-9042-63D521DD6144}"/>
-    <hyperlink ref="N143" r:id="rId277" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{FAA41F83-2606-448D-B322-B112BB2815C3}"/>
-    <hyperlink ref="B144" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{C9BA1E93-9113-43AB-A578-0F7020683C35}"/>
-    <hyperlink ref="N144" r:id="rId279" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{DA8629B3-FB53-4B91-AD3C-B73E73E9C206}"/>
-    <hyperlink ref="B145" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{DB7973EB-4858-4148-8CF7-88A429A3E16D}"/>
-    <hyperlink ref="N145" r:id="rId281" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{B96CE50F-6B12-444A-AE9D-7A7D4FB73504}"/>
-    <hyperlink ref="B146" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{D9F87261-C481-47C3-A402-96C15E1B9419}"/>
-    <hyperlink ref="N146" r:id="rId283" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{46865BD9-0703-41B1-A90F-F8331FFDEB41}"/>
-    <hyperlink ref="B147" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{34456EF0-E362-4F2E-ACD7-B66FAE2EFF5D}"/>
-    <hyperlink ref="N147" r:id="rId285" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{A640010D-65B7-4855-8B23-1CBAF588B974}"/>
-    <hyperlink ref="B148" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{E58A8763-E61E-403E-BD24-EB4DD94BB561}"/>
-    <hyperlink ref="N148" r:id="rId287" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{B214787D-8739-4D4C-82C2-A073CB04C05A}"/>
-    <hyperlink ref="B149" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{21FF0B96-D9D8-4576-B63C-74695C21FE7A}"/>
-    <hyperlink ref="N149" r:id="rId289" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{AFE28B5C-D115-4D60-8A81-D7E5DBB0A7F9}"/>
-    <hyperlink ref="B150" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{F80E5024-2232-4426-8475-3AFC3870652E}"/>
-    <hyperlink ref="N150" r:id="rId291" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{23D94EC5-AFA8-49D5-9381-141E3C6E1C2F}"/>
-    <hyperlink ref="B151" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{F59130CB-CFA4-48C9-B64D-419B341839BA}"/>
-    <hyperlink ref="N151" r:id="rId293" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{1278E806-38CB-4990-9D02-00BD8326701E}"/>
-    <hyperlink ref="B152" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{AB41F00A-4B8B-4077-9962-857A05563099}"/>
-    <hyperlink ref="N152" r:id="rId295" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{72FD66A2-A412-4313-8996-207257395BEE}"/>
-    <hyperlink ref="B153" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{7EDD52F4-A1F3-4D55-BCC7-9B8A1718C662}"/>
-    <hyperlink ref="N153" r:id="rId297" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{A98577AA-60AD-4F29-81F0-E9F0FDB3BB3E}"/>
-    <hyperlink ref="B154" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{7C6E8615-B379-4A95-889E-9384CC5568BE}"/>
-    <hyperlink ref="N154" r:id="rId299" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{CD7EEA72-9F7F-405B-8D12-E9967FAC6E4C}"/>
-    <hyperlink ref="B155" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{7899A13A-C6B0-4A4C-97B2-6F8BC8A24133}"/>
-    <hyperlink ref="N155" r:id="rId301" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{6C3B13D7-40C2-46F8-A4BA-5070C0A4FD6D}"/>
-    <hyperlink ref="B156" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{80DB2C87-F4BB-4C3E-A660-F140A3A57936}"/>
-    <hyperlink ref="N156" r:id="rId303" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{CD95BABE-1820-4619-A9BC-081E93C7DEBC}"/>
-    <hyperlink ref="B157" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{49C6E8FC-9E84-47F8-A242-E4A29C8E0A5B}"/>
-    <hyperlink ref="N157" r:id="rId305" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{3EA1C208-0EBD-470F-9E50-63356195C60F}"/>
-    <hyperlink ref="B158" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{89269297-A2A7-4535-A3DD-277E1079101C}"/>
-    <hyperlink ref="N158" r:id="rId307" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{A49C94C9-449C-4517-82B0-3B847539F842}"/>
-    <hyperlink ref="B159" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{2A726E67-8068-4DE2-826E-8E4EC9C159F9}"/>
-    <hyperlink ref="N159" r:id="rId309" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{D9257E81-8E7F-4422-A377-2D066E88093D}"/>
-    <hyperlink ref="B160" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{2EA6C9C0-7CB0-40D2-9A24-5763CBF6C420}"/>
-    <hyperlink ref="N160" r:id="rId311" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{1440AD76-8EB9-44CE-8643-C555537B57B0}"/>
-    <hyperlink ref="B161" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{B24213D1-FFB7-4F85-9D77-8BEDAF915383}"/>
-    <hyperlink ref="N161" r:id="rId313" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{6164D161-DFD3-487D-ADA3-5D12F81C4EA1}"/>
-    <hyperlink ref="B162" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{9A264D47-4D5D-4153-BDC5-7A80E6B40C5B}"/>
-    <hyperlink ref="N162" r:id="rId315" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{C2E7E56D-5B6D-482A-A73A-5FDB55AADD03}"/>
-    <hyperlink ref="B163" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{9B3C421A-E52B-4E64-97BE-14198BE149DB}"/>
-    <hyperlink ref="N163" r:id="rId317" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{2D7A5870-38E8-4A4E-BF1D-1867BC6053F8}"/>
-    <hyperlink ref="B164" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{59503963-947D-4E1E-907D-4A1B3AB53B2F}"/>
-    <hyperlink ref="N164" r:id="rId319" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{5A763246-C757-49CD-914F-C3A505DF0615}"/>
-    <hyperlink ref="B165" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{C715594E-7F8E-4E09-81CA-C5B9B9E03765}"/>
-    <hyperlink ref="N165" r:id="rId321" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{036BF2D1-78EE-47AC-9F28-F21CB8C7139C}"/>
-    <hyperlink ref="B166" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{F803E0E4-E901-4A12-91B1-E7536C9C4A8E}"/>
-    <hyperlink ref="N166" r:id="rId323" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{013815EE-5AF0-4621-9194-79B04056D997}"/>
-    <hyperlink ref="B167" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{80C4FEE5-9FD9-4EA0-949D-36DED62B7999}"/>
-    <hyperlink ref="N167" r:id="rId325" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{8C9012EF-E88D-4BEA-ACCC-1D0812CB6345}"/>
-    <hyperlink ref="B168" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{05F4B351-C7B3-4136-B911-85BF17DF0901}"/>
-    <hyperlink ref="N168" r:id="rId327" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{90784E79-D046-4EAC-A3D0-C88748BD3910}"/>
-    <hyperlink ref="B169" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{A01BD215-4823-4BA4-93B5-32B5E3B0F9E8}"/>
-    <hyperlink ref="N169" r:id="rId329" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{C5559BD0-687A-4349-8485-E893CF215849}"/>
-    <hyperlink ref="B170" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{02FFFC8C-72D7-4906-9913-4639474F90FB}"/>
-    <hyperlink ref="N170" r:id="rId331" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{386C6D4A-A898-478B-9443-6F60FF190F11}"/>
-    <hyperlink ref="B171" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{903DCAB2-4630-4B35-B747-27AB3BF69242}"/>
-    <hyperlink ref="N171" r:id="rId333" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{7E708BA7-EBBE-470F-9EA2-C1ABDC13C343}"/>
-    <hyperlink ref="B172" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{206245BB-AA28-41F4-9A78-8AFFBE6FC3AC}"/>
-    <hyperlink ref="N172" r:id="rId335" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{3B491B07-0BCC-4A81-AD8E-DEF1E4D0F6AD}"/>
-    <hyperlink ref="B173" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{34DBA3E5-8EC5-43B4-95AC-876E9B221BA2}"/>
-    <hyperlink ref="N173" r:id="rId337" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{180CAC47-8388-4C0F-A4CF-DFF15B8BC6C1}"/>
-    <hyperlink ref="B174" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{6D432825-A74B-47C5-96BB-CA547C4509A3}"/>
-    <hyperlink ref="N174" r:id="rId339" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{D3591486-1756-427A-ADF4-CBDD88BACE0F}"/>
-    <hyperlink ref="B175" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B75E6D22-EAB4-4CF4-AE1E-EE8A1A73D761}"/>
-    <hyperlink ref="N175" r:id="rId341" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{A331AF93-069A-45B6-9697-3C8C53B63B1B}"/>
-    <hyperlink ref="B176" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{CB0D7D7D-27BC-4537-973B-A70E6573C442}"/>
-    <hyperlink ref="N176" r:id="rId343" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{E4211627-2F3E-4F40-A255-E17ED9FD9C12}"/>
-    <hyperlink ref="B177" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{FD1A754C-AC7F-4921-B0E1-9A80B811B438}"/>
-    <hyperlink ref="N177" r:id="rId345" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{3EA47AA7-29C3-4A65-84A7-337921E81A8D}"/>
-    <hyperlink ref="B178" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{4A55B28E-A8F3-4070-BACA-1119AEA85FE4}"/>
-    <hyperlink ref="N178" r:id="rId347" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{E7FBF58D-51C0-4245-B99F-56865422FBE3}"/>
-    <hyperlink ref="B179" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{AC7D18C5-0AB8-48BF-9424-8C416DCDDC66}"/>
-    <hyperlink ref="N179" r:id="rId349" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{4BEF49D6-EB35-464D-A663-648CAAECCC6A}"/>
-    <hyperlink ref="B180" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7F61EC4D-AA87-4799-AEFC-8B6AF8324C2C}"/>
-    <hyperlink ref="N180" r:id="rId351" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{52D3000A-902E-469D-A85B-AEF4A435F81C}"/>
-    <hyperlink ref="B181" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{5D3586AA-D45A-445E-B504-6CE8CDA139D6}"/>
-    <hyperlink ref="N181" r:id="rId353" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{775D9F28-27DE-459D-B175-92A482083B44}"/>
-    <hyperlink ref="B182" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8A9E3716-FF75-40E3-8C36-77ED0B056FC7}"/>
-    <hyperlink ref="N182" r:id="rId355" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{9B688FB8-CD46-443E-99BC-3E951AEC79C2}"/>
-    <hyperlink ref="B183" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{FA63AF4F-0CD7-4858-AD90-17560CAC8C43}"/>
-    <hyperlink ref="N183" r:id="rId357" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{D1C2B480-AA99-4DEB-8573-061CD6F2841F}"/>
-    <hyperlink ref="B184" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{04172095-85F2-4848-8332-AC62602A6FAD}"/>
-    <hyperlink ref="N184" r:id="rId359" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{FF655DCB-CCA7-4D52-A4B8-935A5CB3A357}"/>
-    <hyperlink ref="B185" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{19970ECF-8681-46C3-B34B-E18A6CEF78E9}"/>
-    <hyperlink ref="N185" r:id="rId361" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{6B989970-36C3-4C1F-84D6-1C6245FB640F}"/>
-    <hyperlink ref="B186" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{B8870388-D566-4626-AF53-2E3B47843ECA}"/>
-    <hyperlink ref="N186" r:id="rId363" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{84489A82-3179-45F9-95E6-2013B69ADBB3}"/>
-    <hyperlink ref="B187" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{38AC25F4-1FB9-4397-B748-8A24FC3A0D21}"/>
-    <hyperlink ref="N187" r:id="rId365" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{218CA19B-A972-42B1-AF3C-D4533152F3F8}"/>
-    <hyperlink ref="B188" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{192E87FB-ECBB-4B77-BA22-FD4E7CA4ED92}"/>
-    <hyperlink ref="N188" r:id="rId367" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{38EE35A9-D3C1-4786-8207-9302A3D736D0}"/>
-    <hyperlink ref="B189" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{57DFE3E1-0C85-4961-9DAB-88AF774DE28E}"/>
-    <hyperlink ref="N189" r:id="rId369" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B5FC193B-A485-4CF9-8530-36ED0F210E7A}"/>
-    <hyperlink ref="B190" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{B9F74241-67C2-404B-8AE7-55DDF01FF3E0}"/>
-    <hyperlink ref="N190" r:id="rId371" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{C3BC374D-2F81-4E9C-BB83-A69DCB482DEB}"/>
-    <hyperlink ref="B191" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{8EA26DDD-6D37-4A92-8D6A-2CAD1CA14759}"/>
-    <hyperlink ref="N191" r:id="rId373" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{628FC423-B9B7-47DA-A503-4D3B684CD2E6}"/>
-    <hyperlink ref="B192" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{CC28C243-DE5A-4E6E-A689-3B0CC1B46A54}"/>
-    <hyperlink ref="N192" r:id="rId375" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{30097AAF-686D-4AFA-9A88-C0DE41321C37}"/>
-    <hyperlink ref="B193" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{485AB089-1267-4F89-8A65-D48E26C946B7}"/>
-    <hyperlink ref="N193" r:id="rId377" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{A6D41AA3-43A8-4EFD-B8F4-D1E03D48928A}"/>
-    <hyperlink ref="B194" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{7DB6EFBF-2C01-4AB2-B444-A135F3200708}"/>
-    <hyperlink ref="N194" r:id="rId379" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{552CE729-2643-4D60-B112-B849EB2A34C1}"/>
-    <hyperlink ref="B195" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{ADD540F3-24AB-4A14-A240-7852E8B46EE0}"/>
-    <hyperlink ref="N195" r:id="rId381" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{57104512-692C-4692-AAA6-2875CBDF9ACD}"/>
-    <hyperlink ref="B196" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{C7A7B76A-A557-4C1E-8D6D-A8E0A9395ACB}"/>
-    <hyperlink ref="N196" r:id="rId383" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{DA9973EF-922E-480F-A0E8-B205FE4FB898}"/>
-    <hyperlink ref="B197" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{FD4849E0-9318-43D6-A38E-F339B6FC2B21}"/>
-    <hyperlink ref="N197" r:id="rId385" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{71372584-D8F8-4118-8C70-91DBB9FB7A44}"/>
-    <hyperlink ref="B198" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{C73A94C6-20EA-4443-A384-35226D243079}"/>
-    <hyperlink ref="N198" r:id="rId387" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{FB9C2AE4-06D2-438F-8133-1F9C42283131}"/>
-    <hyperlink ref="B199" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{C5F1D007-02D6-401B-B9B1-AA448114E0B8}"/>
-    <hyperlink ref="N199" r:id="rId389" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{49D66828-3017-4304-AD6A-0A2BDF2AD94A}"/>
-    <hyperlink ref="B200" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{0881FAF4-1BA4-4148-9FF8-0E8C441F1091}"/>
-    <hyperlink ref="N200" r:id="rId391" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{E520DCB1-B440-43D0-B655-D751F4E8A389}"/>
-    <hyperlink ref="B201" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{39A1997B-E968-491B-B91C-0A1271BD2F8B}"/>
-    <hyperlink ref="N201" r:id="rId393" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{7617FE6C-A185-4A32-B5D3-19876B451162}"/>
-    <hyperlink ref="B202" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{52A5C141-F5C9-40C5-A342-63B96BE1695C}"/>
-    <hyperlink ref="N202" r:id="rId395" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{C09DC41C-0F67-443F-838D-74ECE6DEFBC2}"/>
-    <hyperlink ref="B203" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{94BEC62D-4675-430A-82B7-CEE55CAAC05E}"/>
-    <hyperlink ref="N203" r:id="rId397" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{2867C4EC-2E10-4FD6-8080-FEF3D0E36525}"/>
-    <hyperlink ref="B204" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{F4832A76-B17E-4944-8E80-EA530AE91C00}"/>
-    <hyperlink ref="N204" r:id="rId399" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{B6672D81-399F-4F49-B846-8F406EFA5D5A}"/>
-    <hyperlink ref="B205" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{0CBF41DB-61A4-4A4D-BBA9-89CA2427F7AC}"/>
-    <hyperlink ref="N205" r:id="rId401" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EC0CAB91-8BAE-4B67-A53C-C811EE666373}"/>
-    <hyperlink ref="B206" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{98361EA4-6585-4CC5-9516-FB9998B8AFC2}"/>
-    <hyperlink ref="N206" r:id="rId403" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{DDD6E2AF-6331-4B28-9668-7984F55F1D06}"/>
-    <hyperlink ref="B207" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{1559ECF0-29A7-4762-AE49-91FC3C4F24EB}"/>
-    <hyperlink ref="N207" r:id="rId405" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{CB672F4F-45C3-4A2B-9E33-B4E7F1B4F286}"/>
-    <hyperlink ref="B208" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{27C02740-B33D-4C59-B7EF-2F6B5591CED1}"/>
-    <hyperlink ref="N208" r:id="rId407" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{46D7D2D1-71A9-48C5-BF4A-888894E51CAC}"/>
-    <hyperlink ref="B210" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{5869B0FF-C907-4CE5-8FB5-F47A304C3C84}"/>
-    <hyperlink ref="N210" r:id="rId409" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{499CE207-699A-4377-9F1C-CA60A7FE95F8}"/>
-    <hyperlink ref="B211" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{9A0B8B99-29FB-43BF-8A6E-974168BC4CE8}"/>
-    <hyperlink ref="N211" r:id="rId411" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{207762E7-741C-452B-845A-F9D23875D807}"/>
-    <hyperlink ref="B212" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{4E4C58F3-76B4-47A9-87DC-7930203C6C17}"/>
-    <hyperlink ref="N212" r:id="rId413" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{A1304AC2-4AD7-4BFB-A849-60C266852D29}"/>
-    <hyperlink ref="B213" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{826278EC-59B0-4511-A25E-40C4DCA1FDE7}"/>
-    <hyperlink ref="N213" r:id="rId415" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{315826DC-23BD-48BE-B1F7-598DE3A17CD7}"/>
-    <hyperlink ref="B214" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{1863F269-DED9-4431-906C-06E2A972AB38}"/>
-    <hyperlink ref="N214" r:id="rId417" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{0B47A57E-D03A-43A4-B75B-5092B61D3497}"/>
-    <hyperlink ref="B215" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{11888D0E-A7F0-4601-B8C8-486E08310524}"/>
-    <hyperlink ref="N215" r:id="rId419" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{A8A2B439-A0AC-404E-A2F4-7441B3573373}"/>
-    <hyperlink ref="B216" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{F200894D-9BC0-4DC8-8FC7-F9244002BC25}"/>
-    <hyperlink ref="N216" r:id="rId421" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{C71913AC-B763-491E-8915-F40B046827AA}"/>
-    <hyperlink ref="B217" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{68D6DF10-278D-4067-BD70-2305551A002B}"/>
-    <hyperlink ref="N217" r:id="rId423" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{B27F8274-CEA9-426B-B9CD-E95B85667A86}"/>
+    <hyperlink ref="N109" r:id="rId213" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{207D33BA-3F78-4775-8D8A-571B417A11EF}"/>
+    <hyperlink ref="B109" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{F1FE1F56-229F-43F8-9DA6-2A2987472F87}"/>
+    <hyperlink ref="N108" r:id="rId215" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{D660C3E0-18B7-41D8-AD40-D1BFEF2BC731}"/>
+    <hyperlink ref="B108" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{94D8150D-6DA8-4FDA-B330-E52B078C717F}"/>
+    <hyperlink ref="N107" r:id="rId217" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{C67DEEAB-D83F-4AC0-A0D1-26469C44DF2A}"/>
+    <hyperlink ref="B107" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{6F793A86-DEBC-4B9D-AFC3-7CFF8246F5E4}"/>
+    <hyperlink ref="N106" r:id="rId219" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{5328B1A7-4B0F-4FE1-860A-E992B83DF0DC}"/>
+    <hyperlink ref="B106" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{5FF91353-85CB-44A5-8D1C-BFEDD0C2CFAC}"/>
+    <hyperlink ref="N105" r:id="rId221" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{FCC4CDEA-5651-4CAB-9501-ECEBF748C260}"/>
+    <hyperlink ref="B105" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{67D7A06B-09AB-4D2B-B1F0-0D79CFA6C6D2}"/>
+    <hyperlink ref="N104" r:id="rId223" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{E061C3EC-E80A-47FF-B994-E4F960DA1AA3}"/>
+    <hyperlink ref="B104" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{D9C7E84E-FE16-4CA4-B92E-19C903A52E28}"/>
+    <hyperlink ref="N103" r:id="rId225" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{69877157-DB36-4810-B969-2B70900BC20D}"/>
+    <hyperlink ref="B103" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{F26B98F9-D2F4-4125-93D6-2932E5904B6B}"/>
+    <hyperlink ref="N102" r:id="rId227" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{2D45CFD5-A59B-4D9F-A2CA-012BEA5E658E}"/>
+    <hyperlink ref="B102" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{11BF643E-0D9D-448D-B54C-C090B858BBCD}"/>
+    <hyperlink ref="B101" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{C6EEC3C7-0C60-4A45-BBAA-CEBF703F1E39}"/>
+    <hyperlink ref="N100" r:id="rId230" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{B5D68CBB-439A-4407-ABE5-17590505022C}"/>
+    <hyperlink ref="B100" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{8CCA2099-A810-44B3-8EA1-FB2E8314D905}"/>
+    <hyperlink ref="N99" r:id="rId232" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{3CD52089-7A43-4107-B6F6-24A4665E0D66}"/>
+    <hyperlink ref="B99" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{B7B6619C-E781-45BB-B002-24D9B797CD2A}"/>
+    <hyperlink ref="N98" r:id="rId234" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{33AC926D-2E6A-4A77-A2A3-D1BF726B277B}"/>
+    <hyperlink ref="B98" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{33B1EAF8-190D-44D4-B7BF-9EEE73C9B1DA}"/>
+    <hyperlink ref="N97" r:id="rId236" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{75F98607-7BF8-4A55-BD8D-F1FA6E5F2E2F}"/>
+    <hyperlink ref="B97" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{1BB26A83-BD94-4693-8322-D57A0F73AAB5}"/>
+    <hyperlink ref="N96" r:id="rId238" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{D561A218-B0C2-4AF6-9090-E2B5DFA400F4}"/>
+    <hyperlink ref="B96" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{B24786A2-7C5D-4914-8696-FD1054B5A30A}"/>
+    <hyperlink ref="N95" r:id="rId240" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{2D415E70-4576-4EA9-8694-E972932A9464}"/>
+    <hyperlink ref="B95" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{60F43511-5C72-4951-8CD5-879E5FFA3F34}"/>
+    <hyperlink ref="N94" r:id="rId242" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{874AAD9B-64DE-4E8A-B847-9A431CD787A9}"/>
+    <hyperlink ref="B94" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{AA4EF88C-493B-4033-83DC-EF912D328495}"/>
+    <hyperlink ref="N93" r:id="rId244" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{9CC69ABA-5AC9-49AF-849A-B8249002D2CA}"/>
+    <hyperlink ref="B93" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{D61FF846-D1A3-4EFD-8145-B4E8152B7586}"/>
+    <hyperlink ref="N92" r:id="rId246" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{C8CAF69C-8AA4-4FED-9009-43845E426572}"/>
+    <hyperlink ref="B92" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{3BB584F6-0E0E-4E1E-93ED-00A916AF94D7}"/>
+    <hyperlink ref="N91" r:id="rId248" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{E11307E7-26A9-4140-9737-7DC94261E3CB}"/>
+    <hyperlink ref="B91" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{5C74C3A1-2EBE-4F0C-9E1E-B627415AD1BE}"/>
+    <hyperlink ref="N90" r:id="rId250" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{B648699E-BD1E-47DB-A4A0-F68F5C94EC0A}"/>
+    <hyperlink ref="B90" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{9C1383AF-23F4-4EF9-9D8A-8A51606B9B49}"/>
+    <hyperlink ref="N89" r:id="rId252" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{624DCF55-4D63-4FA7-9929-8FACBA78626C}"/>
+    <hyperlink ref="B89" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{4D7B2546-2F48-48C3-BF08-E02B158F4197}"/>
+    <hyperlink ref="N88" r:id="rId254" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{D010CF52-68FD-43AA-906B-9C317695795B}"/>
+    <hyperlink ref="B88" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{05CB7456-22DF-44F3-9D81-CA1B76CB3F21}"/>
+    <hyperlink ref="N87" r:id="rId256" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{991BF29F-94BF-452E-A66B-30440364D326}"/>
+    <hyperlink ref="B87" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{185E857F-DBB6-48CD-B1DC-096F80218D1F}"/>
+    <hyperlink ref="N86" r:id="rId258" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{EFC54A48-4417-40D8-B474-BB94C558B59F}"/>
+    <hyperlink ref="B86" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{91C1E1FE-DBEE-4996-8B6A-056960367EFD}"/>
+    <hyperlink ref="N85" r:id="rId260" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{1EF98FAF-C732-45E4-B9FE-3082901BD712}"/>
+    <hyperlink ref="B85" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{1931512C-A655-432A-A060-9B28565234F9}"/>
+    <hyperlink ref="N84" r:id="rId262" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{F3CEC1A5-E46A-4D62-BAD3-21B1DC648D74}"/>
+    <hyperlink ref="B84" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{181B094F-3D2D-45A9-9758-C7C1A0DCC561}"/>
+    <hyperlink ref="N83" r:id="rId264" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{4F90F550-592A-48C3-8861-7B0ADF2088E9}"/>
+    <hyperlink ref="B83" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{C03862D2-78DC-46F5-B985-CD82CB18666D}"/>
+    <hyperlink ref="N82" r:id="rId266" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{8A7CE49F-ACB4-4AC5-AE81-A20881DC4817}"/>
+    <hyperlink ref="B82" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{C551FD80-E43E-41D9-9692-8050CC3D04CE}"/>
+    <hyperlink ref="N81" r:id="rId268" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{DDC28E36-992E-4473-A1D1-D627C4C838A0}"/>
+    <hyperlink ref="B81" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{E62E6700-3DA7-427E-8D89-DECBB445E59D}"/>
+    <hyperlink ref="N80" r:id="rId270" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{FF42669A-C800-4C52-BA05-F016EC462905}"/>
+    <hyperlink ref="B80" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{EA6440F9-77D2-4F1D-BE8B-1436CB8E92F8}"/>
+    <hyperlink ref="N79" r:id="rId272" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{D680940B-B362-4848-9C93-2643951C7C5A}"/>
+    <hyperlink ref="B79" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{987D5D13-67FA-4D87-A41D-4491B1D2DD93}"/>
+    <hyperlink ref="N78" r:id="rId274" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{E292CA80-1195-4C91-9EEE-C2A5067122E5}"/>
+    <hyperlink ref="B78" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{7F8FE073-7C51-41DE-B175-EDB66480A662}"/>
+    <hyperlink ref="N77" r:id="rId276" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{B33F3C64-ADD8-44C6-9D28-C4BDD475320E}"/>
+    <hyperlink ref="B77" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{068C6615-02BC-4004-BBDF-D52F8514E9E7}"/>
+    <hyperlink ref="N76" r:id="rId278" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{7C80F334-D3B4-427B-8FCA-1BB656A24311}"/>
+    <hyperlink ref="B76" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{AFC0B572-E1D5-4A7F-9548-9F5B89560B51}"/>
+    <hyperlink ref="N75" r:id="rId280" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{96457135-D28A-410B-AB03-01EBC1D4383E}"/>
+    <hyperlink ref="B75" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{57F26A4D-CDC2-40D0-A466-1637F1BF7468}"/>
+    <hyperlink ref="N74" r:id="rId282" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{F8F616BA-03E4-4394-A007-91EB9F203885}"/>
+    <hyperlink ref="B74" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{9AF8DD24-4948-451E-931D-5F57534F4E5A}"/>
+    <hyperlink ref="N73" r:id="rId284" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{34B9306E-BF74-4AF3-B52C-A0F0E1959936}"/>
+    <hyperlink ref="B73" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{F6E6912C-613B-4544-B5FE-F50A6BC9244F}"/>
+    <hyperlink ref="N72" r:id="rId286" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{725B28C4-0004-42B4-BE6D-D15E4E4A226A}"/>
+    <hyperlink ref="B72" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{8BC13D08-B02A-4DAE-AED5-18E3E4C22F5D}"/>
+    <hyperlink ref="N71" r:id="rId288" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{3F5EFACB-5E08-4AAF-B3A1-F85F8D547E92}"/>
+    <hyperlink ref="B71" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{B31EC656-C9B9-4CA0-A909-5AC1579492B4}"/>
+    <hyperlink ref="N70" r:id="rId290" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{41DC6F59-338B-4502-9DF2-61A1CB0BBD9E}"/>
+    <hyperlink ref="B70" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{10A0098F-A4E3-4610-9FFF-0302CD8F2AC1}"/>
+    <hyperlink ref="N69" r:id="rId292" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{92E1A27B-61C1-4BAE-8C79-01B17A89D8EA}"/>
+    <hyperlink ref="B69" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{C6D680CF-0CC6-4C4B-95DF-019C223556D1}"/>
+    <hyperlink ref="N68" r:id="rId294" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{40E43492-EB77-4AE6-A01D-CA68B541AB5A}"/>
+    <hyperlink ref="B68" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{04E74419-492B-4B33-95B3-6ED2182867FA}"/>
+    <hyperlink ref="N67" r:id="rId296" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{A9AF123A-08CA-4DC4-AE2B-07DBF46EE5A3}"/>
+    <hyperlink ref="B67" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{9943EE8F-4414-414E-97DD-02F5A6CC800C}"/>
+    <hyperlink ref="N66" r:id="rId298" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{C0ECC39B-1CE7-4F66-91A9-0C25A64D8521}"/>
+    <hyperlink ref="B66" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{10F24522-30C0-461D-8D62-717A933F58AF}"/>
+    <hyperlink ref="N65" r:id="rId300" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{C41B3013-23EE-4EFE-8EB7-C5F3741CE616}"/>
+    <hyperlink ref="B65" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{802A113B-28DC-4A9C-BAB6-33DA1D4C6FED}"/>
+    <hyperlink ref="N64" r:id="rId302" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{4778D37A-08BA-4B7D-9383-BB7C1F324097}"/>
+    <hyperlink ref="B64" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{C7EEA78B-998B-40D5-B17C-07F80B5DFDB6}"/>
+    <hyperlink ref="N63" r:id="rId304" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{ECFB90F2-5D61-47C8-9A53-82816827AA9D}"/>
+    <hyperlink ref="B63" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{CAE92631-804A-469D-8AD3-1BD185A62901}"/>
+    <hyperlink ref="N62" r:id="rId306" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{E2DA2F69-438A-4D02-BB7B-76C29946D28C}"/>
+    <hyperlink ref="B62" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{9C87C19D-2DC6-4782-AD77-9D2AA1B3D572}"/>
+    <hyperlink ref="N61" r:id="rId308" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{F747FC7B-B946-4289-A0E8-C33BD73AEA14}"/>
+    <hyperlink ref="B61" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{F0C5DFB3-9132-454D-8F78-1082688668A9}"/>
+    <hyperlink ref="N60" r:id="rId310" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{C3CEC18C-56D2-4231-8E2B-CE13050F5E97}"/>
+    <hyperlink ref="B60" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{29740B57-5D29-40B0-8809-AABB501323C8}"/>
+    <hyperlink ref="N59" r:id="rId312" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{ED56E072-5142-4CDE-B7F7-2CF365462E3A}"/>
+    <hyperlink ref="B59" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{FA302B48-B795-43B9-B3D8-B364B4F6F885}"/>
+    <hyperlink ref="N58" r:id="rId314" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{DE8466D3-9DE2-4A0A-A665-DEA1F621A492}"/>
+    <hyperlink ref="B58" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{1BFD82C8-2FFC-4A3B-BB34-C3AEF5CEB1F2}"/>
+    <hyperlink ref="N57" r:id="rId316" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{C684540E-7C0F-4535-9364-4E28AA73647E}"/>
+    <hyperlink ref="B57" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{E483C3A1-D3EC-4E01-8A89-772380B7CD5C}"/>
+    <hyperlink ref="N56" r:id="rId318" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{3284E1C5-8C5D-453C-9919-B5E516E32A1D}"/>
+    <hyperlink ref="B56" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{422D3B73-D5B5-4EF5-A658-DD5C5E546B1E}"/>
+    <hyperlink ref="N55" r:id="rId320" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{BECF1651-B333-43CD-A1C3-4C8478A3D262}"/>
+    <hyperlink ref="B55" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{DA81506D-CD1E-47B4-845B-BD26E19FCB77}"/>
+    <hyperlink ref="N54" r:id="rId322" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{B93B67E2-514D-4AA7-A24D-67B8FB29BE36}"/>
+    <hyperlink ref="B54" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{C9AED869-4D48-4525-8058-AC94AC7E2237}"/>
+    <hyperlink ref="N53" r:id="rId324" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{148374FE-64EF-49CF-A635-51E3142BFEEF}"/>
+    <hyperlink ref="B53" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{256ECF95-E144-4C13-A5C4-4F5D7578685A}"/>
+    <hyperlink ref="N52" r:id="rId326" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{961A5585-3EB5-4519-8038-23B833B0BF8A}"/>
+    <hyperlink ref="B52" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{49F6760D-EBF3-439F-82FA-32B4E8DFD949}"/>
+    <hyperlink ref="N51" r:id="rId328" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{33EF97D9-7C80-4CC8-9E37-54B13EBD1FAD}"/>
+    <hyperlink ref="B51" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{B9DAE27C-CA94-47C2-B971-7B999FE21967}"/>
+    <hyperlink ref="N50" r:id="rId330" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{D7E71B9A-4372-494C-BE8A-37C0582B9203}"/>
+    <hyperlink ref="B50" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{A9E2B625-5661-4816-B0C0-36A40D47A8D6}"/>
+    <hyperlink ref="N49" r:id="rId332" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{229344AE-CEFA-494F-B134-1BCA363D4336}"/>
+    <hyperlink ref="B49" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AB7BB93C-8FE3-4E12-89EA-5E4BBB30E8B7}"/>
+    <hyperlink ref="N48" r:id="rId334" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{0D1EC2D4-EE81-436B-A4CB-7052C36AADDF}"/>
+    <hyperlink ref="B48" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{EE1B1BA1-468B-430C-B4AC-AE3D5FA0162B}"/>
+    <hyperlink ref="N47" r:id="rId336" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{22CD87DC-9033-4970-980A-DB1FEB7F0758}"/>
+    <hyperlink ref="B47" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{463D0606-7223-4C30-B45B-E91CC7FAC8D6}"/>
+    <hyperlink ref="N46" r:id="rId338" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{97516D6F-A051-4D42-B839-084321CCA883}"/>
+    <hyperlink ref="B46" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{914420E2-CDAC-44CF-8094-89E1EB1F2A5D}"/>
+    <hyperlink ref="N45" r:id="rId340" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{0B906507-9F52-41FA-A446-32CBC71EA4FF}"/>
+    <hyperlink ref="B45" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{93471262-4193-4774-98B1-1A4ADA5222F0}"/>
+    <hyperlink ref="N44" r:id="rId342" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{64257F3F-6606-4847-8955-6796551995E4}"/>
+    <hyperlink ref="B44" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{BEFEF65C-7606-4B7D-87EF-F9C5E12ADBC6}"/>
+    <hyperlink ref="N43" r:id="rId344" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{243067F1-5774-44A5-AB10-76E26DAA547A}"/>
+    <hyperlink ref="B43" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{CE82A6C3-8145-4A70-AA84-2D6C26F02FB8}"/>
+    <hyperlink ref="N42" r:id="rId346" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{9E461DBC-21F2-402F-B50C-F4886D352A01}"/>
+    <hyperlink ref="B42" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{69B39797-4D1B-4AF2-AC26-9C4A62FFF472}"/>
+    <hyperlink ref="B41" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{1F0282E3-D700-4F76-879E-88F6E4C7921A}"/>
+    <hyperlink ref="N40" r:id="rId349" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{DF08FA3E-687D-4973-BCBB-B4B8DCF23342}"/>
+    <hyperlink ref="B40" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{B4A26863-13C0-4FE3-9E8A-4C700D43F085}"/>
+    <hyperlink ref="N39" r:id="rId351" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{74F57DBA-C052-47DF-A294-93BAC4FAD301}"/>
+    <hyperlink ref="B39" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{4F85F7DC-D8EE-45D5-A0FB-CABB3DF82D18}"/>
+    <hyperlink ref="N38" r:id="rId353" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{1FC3241F-B066-45C4-926C-F0893CB83645}"/>
+    <hyperlink ref="B38" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{AC123BF9-6B95-4F22-9393-79EE39AA7227}"/>
+    <hyperlink ref="N37" r:id="rId355" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{12EA5F1B-6262-4C89-ABAC-423F598F1D8F}"/>
+    <hyperlink ref="B37" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{FC057CED-9670-4D48-9454-23A9BAA7C8C4}"/>
+    <hyperlink ref="N36" r:id="rId357" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{0CE83DD3-A8BA-456E-BA75-5BC33ECB3993}"/>
+    <hyperlink ref="B36" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{DC976F7E-B9E8-4432-B609-0E2682C0B8C8}"/>
+    <hyperlink ref="N35" r:id="rId359" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{2974CC9B-A961-4076-A1B1-0039A4DDD871}"/>
+    <hyperlink ref="B35" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{2DECA8C7-D25C-44EF-B1DB-7FD1F27DB1F5}"/>
+    <hyperlink ref="N34" r:id="rId361" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{382B685F-3270-4BDB-9780-CA3876C53078}"/>
+    <hyperlink ref="B34" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{5EE884E4-DE89-4E5F-8DD5-27385C491C9F}"/>
+    <hyperlink ref="N33" r:id="rId363" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{1E6F069C-8FEC-4D46-910D-B877F424D1AB}"/>
+    <hyperlink ref="B33" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{F2AA1C3B-FABE-496A-8DB1-962E9D91A8B3}"/>
+    <hyperlink ref="N32" r:id="rId365" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{C4C172B5-3DAB-4B7B-8B2B-F5E02E95E02B}"/>
+    <hyperlink ref="B32" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{73586D4A-7345-4594-BCA7-ACE64FACAFE1}"/>
+    <hyperlink ref="N31" r:id="rId367" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2BCD0A53-6A9E-4EF5-B599-7B76C2C85206}"/>
+    <hyperlink ref="B31" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{55E6708C-3096-4387-A8D4-2FB4EC3E80BB}"/>
+    <hyperlink ref="N30" r:id="rId369" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{0EC9ACFE-A2FF-48B6-9593-7C049888B64F}"/>
+    <hyperlink ref="B30" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{688089EC-7DBD-41C1-B0A8-B8D536031618}"/>
+    <hyperlink ref="N29" r:id="rId371" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{34AD3F49-1523-4F64-8A00-337B4BD516DE}"/>
+    <hyperlink ref="B29" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{C405C34E-D36F-4BDD-96D4-60AE4F937B86}"/>
+    <hyperlink ref="N28" r:id="rId373" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{79F2C9D6-015A-48FC-AED5-550481734DAA}"/>
+    <hyperlink ref="B28" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{13FCA1AA-24C1-41D8-9347-4142DC20172B}"/>
+    <hyperlink ref="N27" r:id="rId375" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{EE63DCEE-0FF7-438B-AB4D-A5361926F820}"/>
+    <hyperlink ref="B27" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{3CFFBE05-445E-428E-A0CD-4E7DE8047CE1}"/>
+    <hyperlink ref="N26" r:id="rId377" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{0CFED805-E499-4169-BF85-799013F924C5}"/>
+    <hyperlink ref="B26" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{9ACDA4CD-653B-415F-A9E7-C51FD48A5D4F}"/>
+    <hyperlink ref="N25" r:id="rId379" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{9D6B4B68-C0D0-49C1-8A7C-8B99F76A50BD}"/>
+    <hyperlink ref="B25" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{153DDEDD-0EAA-488B-904D-B8812750A93E}"/>
+    <hyperlink ref="N24" r:id="rId381" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{B6B92B27-2138-4D60-8AB3-5162C0193A87}"/>
+    <hyperlink ref="B24" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{35A46326-D55B-4F1C-A9EE-68C5B2FA2797}"/>
+    <hyperlink ref="N23" r:id="rId383" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{54A2F4A8-0B2F-4005-957F-E0A5A9C8A831}"/>
+    <hyperlink ref="B23" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{F68F7DF0-71B9-4BFA-BEF7-3D3750C163A7}"/>
+    <hyperlink ref="N22" r:id="rId385" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{CCD8B8C9-4FAF-46F9-BDD4-C0F882A6B5D1}"/>
+    <hyperlink ref="B22" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{631D0260-1E9A-455C-9327-1D704CD03CF1}"/>
+    <hyperlink ref="N21" r:id="rId387" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{BD55AF56-7D6C-44B2-B0A5-BE35EA308635}"/>
+    <hyperlink ref="B21" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{853C44A8-CBF0-4664-BC22-29158B6205DA}"/>
+    <hyperlink ref="N20" r:id="rId389" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{3544F925-27E6-402F-8EB8-5B35E8E80215}"/>
+    <hyperlink ref="B20" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{F1A380E7-B758-44C8-8FDD-349BBB31A06C}"/>
+    <hyperlink ref="N19" r:id="rId391" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{9E15817E-108F-46DE-9A58-484CBD0CE24E}"/>
+    <hyperlink ref="B19" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{84358C85-FDC2-455D-9644-4907ED2D1A06}"/>
+    <hyperlink ref="N18" r:id="rId393" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{03A94F64-AB5E-44BA-AC86-17F78D10D778}"/>
+    <hyperlink ref="B18" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{FB016332-FBDA-46CA-BACA-18C4DB333142}"/>
+    <hyperlink ref="B17" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{D11DFBDA-6182-48C9-B161-EB9EB30851B3}"/>
+    <hyperlink ref="N16" r:id="rId396" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{946B2F34-58ED-4B81-9F6C-E7CF3B29507E}"/>
+    <hyperlink ref="B16" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{4E50668A-4B58-4943-AC13-BE0DD8E9D253}"/>
+    <hyperlink ref="N15" r:id="rId398" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{437F447C-1CCB-4B49-83F3-1073863E9FB1}"/>
+    <hyperlink ref="B15" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{3F23911C-3E14-4062-AB13-920599CA51CA}"/>
+    <hyperlink ref="N14" r:id="rId400" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{4E99BB23-592B-4981-BD31-CF0E06206EB2}"/>
+    <hyperlink ref="B14" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{ABFC8D22-79ED-48E2-B3DD-6A14F6465961}"/>
+    <hyperlink ref="N13" r:id="rId402" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{D8C1D559-253A-4630-B494-A1B11CBA5418}"/>
+    <hyperlink ref="B13" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{8907A4AD-3F51-4D27-A976-6ECF8F991F26}"/>
+    <hyperlink ref="N12" r:id="rId404" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{D7F5FE63-06A2-4A02-8B4C-D8CC32F24AC0}"/>
+    <hyperlink ref="B12" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{78ED4E7E-7B88-4951-B5AC-37CF15C1017F}"/>
+    <hyperlink ref="N11" r:id="rId406" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{9F718C22-090E-4626-843C-905A6A99A4A0}"/>
+    <hyperlink ref="B11" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{E63836C2-7925-4FC5-8C6A-90097193A991}"/>
+    <hyperlink ref="N10" r:id="rId408" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{9E8FD0B6-CEFE-4830-B41C-8DC9AB5CEAE0}"/>
+    <hyperlink ref="B10" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{6222DEF0-94EA-4C03-950F-1FB905398CAB}"/>
+    <hyperlink ref="N9" r:id="rId410" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{AE7C2264-9C6A-4C96-A2EE-8CBB6110A938}"/>
+    <hyperlink ref="B9" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{BF170DAF-B392-4A04-8047-7CA894E1CD3B}"/>
+    <hyperlink ref="N8" r:id="rId412" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{28F6BF71-76B7-4D1A-9F7B-6ED04EB86C6F}"/>
+    <hyperlink ref="B8" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{E36A44A1-8ACC-4CE5-A80A-F158081CB844}"/>
+    <hyperlink ref="N7" r:id="rId414" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{B772ACC7-2DD2-47AD-972E-EA0035D401F4}"/>
+    <hyperlink ref="B7" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{812391AD-A396-4030-9E81-412C4C439D8A}"/>
+    <hyperlink ref="N6" r:id="rId416" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{8B59DBA4-46FF-4F60-A6E8-25106E51F2CB}"/>
+    <hyperlink ref="B6" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{CA11BF01-D181-4BC1-B1E4-72BAF837898F}"/>
+    <hyperlink ref="N5" r:id="rId418" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{BDED7E88-1358-4734-B5F0-2918C2A7E3EF}"/>
+    <hyperlink ref="B5" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{9A282C24-80F3-4B9C-9978-02EF8650F356}"/>
+    <hyperlink ref="N4" r:id="rId420" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{5CC1321D-07D3-45EE-A1A0-B1657AF8262F}"/>
+    <hyperlink ref="B4" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{55E3E8CB-B6C1-4C52-B9B0-7AF526089101}"/>
+    <hyperlink ref="N3" r:id="rId422" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{2E09A5E6-EF61-4860-B84B-7733C39C6591}"/>
+    <hyperlink ref="B3" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{B122A6F2-3870-4382-A8A9-4DC1D806E274}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId424"/>
